--- a/Design/AceSchema.xlsx
+++ b/Design/AceSchema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniofbuck-my.sharepoint.com/personal/1910332_buckingham_ac_uk/Documents/Assignments/Final Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniofbuck-my.sharepoint.com/personal/1910332_buckingham_ac_uk/Documents/Assignments/Final Project/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="191" documentId="8_{026A4799-6F2A-4F2B-81EA-D8BAC5A3D7A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1FD324BE-18EE-4673-9A34-D81754A2D467}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{19043532-3496-40B9-88BB-6D1C7BE622B6}"/>
+    <workbookView xWindow="-20775" yWindow="1965" windowWidth="20955" windowHeight="11055" xr2:uid="{19043532-3496-40B9-88BB-6D1C7BE622B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -744,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8DF317-4905-4B16-89A4-9996814F47DA}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Design/AceSchema.xlsx
+++ b/Design/AceSchema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniofbuck-my.sharepoint.com/personal/1910332_buckingham_ac_uk/Documents/Assignments/Final Project/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="8_{026A4799-6F2A-4F2B-81EA-D8BAC5A3D7A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1FD324BE-18EE-4673-9A34-D81754A2D467}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="8_{026A4799-6F2A-4F2B-81EA-D8BAC5A3D7A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{066F1738-9092-4869-A69D-3993AEDFD102}"/>
   <bookViews>
-    <workbookView xWindow="-20775" yWindow="1965" windowWidth="20955" windowHeight="11055" xr2:uid="{19043532-3496-40B9-88BB-6D1C7BE622B6}"/>
+    <workbookView xWindow="7020" yWindow="2745" windowWidth="18900" windowHeight="11055" xr2:uid="{19043532-3496-40B9-88BB-6D1C7BE622B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
   <si>
     <t>ACE360 ID</t>
   </si>
@@ -150,19 +150,10 @@
     <t xml:space="preserve">Description </t>
   </si>
   <si>
-    <t>Used In Project</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t xml:space="preserve">Integer  </t>
   </si>
   <si>
     <t xml:space="preserve">Unique ID for Apprentices in Ace360 application </t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>Text</t>
@@ -342,12 +333,6 @@
   </si>
   <si>
     <t>Not used</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
   </si>
 </sst>
 </file>
@@ -429,17 +414,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{817ED8DF-20BC-47E6-A112-83B6524D7DDA}" name="Table1" displayName="Table1" ref="A1:H54" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:H54" xr:uid="{4FDFDF61-50CE-4743-B957-12CD0E5347D9}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{817ED8DF-20BC-47E6-A112-83B6524D7DDA}" name="Table1" displayName="Table1" ref="A1:E54" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E54" xr:uid="{4FDFDF61-50CE-4743-B957-12CD0E5347D9}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{AB06756D-C419-4CD8-A7D2-BD1D83BDFA3F}" name="Field Name"/>
-    <tableColumn id="2" xr3:uid="{D3BE2632-2F28-4698-BF00-6F463ED93881}" name="Used In Project"/>
     <tableColumn id="3" xr3:uid="{625C9787-6E2E-44F2-90C6-67DE1E6D2C42}" name="Data Type"/>
     <tableColumn id="4" xr3:uid="{43C0FD68-060D-43FA-9956-8285C1FEC8A3}" name="Description "/>
     <tableColumn id="5" xr3:uid="{CF23AD1A-0165-469D-9770-759BCBF879F1}" name="Value(s)"/>
     <tableColumn id="6" xr3:uid="{3A935E41-4E92-4F5B-8012-6BB4673C9155}" name="Value Description "/>
-    <tableColumn id="7" xr3:uid="{C44BF1CE-7E8C-4598-8F3C-C26CC44D6442}" name="Column1"/>
-    <tableColumn id="8" xr3:uid="{3BA99144-5C3E-4891-9A20-64E6EE164A85}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -742,663 +724,545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8DF317-4905-4B16-89A4-9996814F47DA}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="79" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="D4" t="s">
         <v>44</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="F3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="1"/>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
-      <c r="E8" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" t="s">
         <v>52</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
-      <c r="E9" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" t="s">
         <v>53</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="1"/>
-      <c r="E12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34">
+        <v>82</v>
+      </c>
+      <c r="D34">
         <v>3</v>
       </c>
-      <c r="F34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E35">
+      <c r="E34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D35">
         <v>4</v>
       </c>
-      <c r="F35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>26</v>
       </c>
-      <c r="B46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C46" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>27</v>
       </c>
-      <c r="B47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C47" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>28</v>
       </c>
-      <c r="B48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>29</v>
       </c>
-      <c r="B49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>30</v>
       </c>
-      <c r="B50" t="s">
-        <v>39</v>
-      </c>
-      <c r="D50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>31</v>
       </c>
-      <c r="B51" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>32</v>
       </c>
-      <c r="B52" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>33</v>
       </c>
-      <c r="B53" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>34</v>
       </c>
-      <c r="B54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" t="s">
-        <v>101</v>
+      <c r="C54" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Design/AceSchema.xlsx
+++ b/Design/AceSchema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniofbuck-my.sharepoint.com/personal/1910332_buckingham_ac_uk/Documents/Assignments/Final Project/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="8_{026A4799-6F2A-4F2B-81EA-D8BAC5A3D7A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{066F1738-9092-4869-A69D-3993AEDFD102}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="8_{026A4799-6F2A-4F2B-81EA-D8BAC5A3D7A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3E1BB178-EA61-45A2-9634-310336E47D53}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="2745" windowWidth="18900" windowHeight="11055" xr2:uid="{19043532-3496-40B9-88BB-6D1C7BE622B6}"/>
+    <workbookView xWindow="25080" yWindow="1770" windowWidth="25440" windowHeight="15390" xr2:uid="{19043532-3496-40B9-88BB-6D1C7BE622B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,17 +375,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -414,14 +433,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{817ED8DF-20BC-47E6-A112-83B6524D7DDA}" name="Table1" displayName="Table1" ref="A1:E54" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{817ED8DF-20BC-47E6-A112-83B6524D7DDA}" name="Table1" displayName="Table1" ref="A1:E54" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:E54" xr:uid="{4FDFDF61-50CE-4743-B957-12CD0E5347D9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{AB06756D-C419-4CD8-A7D2-BD1D83BDFA3F}" name="Field Name"/>
     <tableColumn id="3" xr3:uid="{625C9787-6E2E-44F2-90C6-67DE1E6D2C42}" name="Data Type"/>
-    <tableColumn id="4" xr3:uid="{43C0FD68-060D-43FA-9956-8285C1FEC8A3}" name="Description "/>
-    <tableColumn id="5" xr3:uid="{CF23AD1A-0165-469D-9770-759BCBF879F1}" name="Value(s)"/>
-    <tableColumn id="6" xr3:uid="{3A935E41-4E92-4F5B-8012-6BB4673C9155}" name="Value Description "/>
+    <tableColumn id="4" xr3:uid="{43C0FD68-060D-43FA-9956-8285C1FEC8A3}" name="Description " dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{CF23AD1A-0165-469D-9770-759BCBF879F1}" name="Value(s)" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{3A935E41-4E92-4F5B-8012-6BB4673C9155}" name="Value Description " dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -726,15 +745,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8DF317-4905-4B16-89A4-9996814F47DA}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -747,25 +768,25 @@
       <c r="C1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -775,91 +796,91 @@
       <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -870,18 +891,18 @@
       <c r="B13" t="s">
         <v>64</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -892,7 +913,7 @@
       <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -903,7 +924,7 @@
       <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -914,7 +935,7 @@
       <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -925,43 +946,44 @@
       <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -972,7 +994,7 @@
       <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -983,7 +1005,7 @@
       <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -994,7 +1016,7 @@
       <c r="B24" t="s">
         <v>40</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1005,7 +1027,7 @@
       <c r="B25" t="s">
         <v>40</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1016,51 +1038,57 @@
       <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1071,43 +1099,44 @@
       <c r="B34" t="s">
         <v>64</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>3</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D35">
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1">
         <v>4</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
       <c r="B36" t="s">
         <v>64</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
       <c r="B37" t="s">
         <v>68</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1118,15 +1147,16 @@
       <c r="B38" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
       <c r="B39" t="s">
         <v>68</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1137,59 +1167,60 @@
       <c r="B40" t="s">
         <v>40</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
       <c r="B42" t="s">
         <v>64</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>24</v>
       </c>
       <c r="B43" t="s">
         <v>40</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>25</v>
       </c>
       <c r="B45" t="s">
         <v>67</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1197,7 +1228,7 @@
       <c r="A46" t="s">
         <v>26</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1205,7 +1236,7 @@
       <c r="A47" t="s">
         <v>27</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1213,7 +1244,7 @@
       <c r="A48" t="s">
         <v>28</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1221,7 +1252,7 @@
       <c r="A49" t="s">
         <v>29</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1229,7 +1260,7 @@
       <c r="A50" t="s">
         <v>30</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1237,7 +1268,7 @@
       <c r="A51" t="s">
         <v>31</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1245,7 +1276,7 @@
       <c r="A52" t="s">
         <v>32</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1253,7 +1284,7 @@
       <c r="A53" t="s">
         <v>33</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1261,7 +1292,7 @@
       <c r="A54" t="s">
         <v>34</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>98</v>
       </c>
     </row>
